--- a/public/assets/exceldocument/Item-Master.xlsx
+++ b/public/assets/exceldocument/Item-Master.xlsx
@@ -1,31 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asus\Desktop\17042024\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D245ED35-C84E-4D36-80EF-A884A0172C4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="20490" windowHeight="7530"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="92">
   <si>
     <t>Item Name</t>
   </si>
@@ -84,217 +73,217 @@
     <t>Potassium Chloride</t>
   </si>
   <si>
+    <t>TON</t>
+  </si>
+  <si>
+    <t>potassium/24555</t>
+  </si>
+  <si>
+    <t>646546/Potassium Chloride</t>
+  </si>
+  <si>
+    <t>Potassium Chloride145852</t>
+  </si>
+  <si>
+    <t>Taxable</t>
+  </si>
+  <si>
+    <t>Goods</t>
+  </si>
+  <si>
     <t>JOB WORK</t>
   </si>
   <si>
+    <t>PCS</t>
+  </si>
+  <si>
+    <t>job/245551</t>
+  </si>
+  <si>
+    <t>646546/JOB WORK</t>
+  </si>
+  <si>
+    <t>JOB WORK145853</t>
+  </si>
+  <si>
+    <t>Service</t>
+  </si>
+  <si>
     <t>Sodium Sulphate</t>
   </si>
   <si>
+    <t>sodium/24552</t>
+  </si>
+  <si>
+    <t>646546/Sodium Sulphate</t>
+  </si>
+  <si>
+    <t>Sodium Sulphate145854</t>
+  </si>
+  <si>
     <t>Medium Free Flow Salt</t>
   </si>
   <si>
+    <t>medium/245553</t>
+  </si>
+  <si>
+    <t>646546/Medium Free Flow Salt</t>
+  </si>
+  <si>
+    <t>Medium Free Flow Salt145855</t>
+  </si>
+  <si>
     <t xml:space="preserve">Alluminium Chloride </t>
   </si>
   <si>
+    <t>alluminium/245554</t>
+  </si>
+  <si>
+    <t>646546/Alluminium Chloride</t>
+  </si>
+  <si>
+    <t>Alluminium Chloride 145856</t>
+  </si>
+  <si>
     <t xml:space="preserve">Sodium Thyo Sulphate </t>
   </si>
   <si>
-    <t>TON</t>
-  </si>
-  <si>
-    <t>potassium/24555</t>
-  </si>
-  <si>
-    <t>job/245551</t>
-  </si>
-  <si>
-    <t>sodium/24552</t>
-  </si>
-  <si>
-    <t>medium/245553</t>
-  </si>
-  <si>
-    <t>alluminium/245554</t>
-  </si>
-  <si>
     <t>sodium/245555</t>
   </si>
   <si>
+    <t>646546/Sodium Thyo Sulphate</t>
+  </si>
+  <si>
+    <t>Sodium Thyo Sulphate 145857</t>
+  </si>
+  <si>
     <t>sodium/245556</t>
   </si>
   <si>
-    <t>646546/Potassium Chloride</t>
-  </si>
-  <si>
-    <t>646546/JOB WORK</t>
-  </si>
-  <si>
-    <t>646546/Sodium Sulphate</t>
-  </si>
-  <si>
-    <t>646546/Medium Free Flow Salt</t>
-  </si>
-  <si>
-    <t>646546/Alluminium Chloride</t>
-  </si>
-  <si>
-    <t>646546/Sodium Thyo Sulphate</t>
-  </si>
-  <si>
-    <t>Taxable</t>
-  </si>
-  <si>
-    <t>Goods</t>
-  </si>
-  <si>
-    <t>Service</t>
+    <t>Sodium Sulphate145858</t>
   </si>
   <si>
     <t>HP i5 DESKTOP WITH 21.5" MONITOR</t>
   </si>
   <si>
+    <t>HP i5 DESKTOP WITH 21.5" MONITOR84715000</t>
+  </si>
+  <si>
+    <t>145859HP i5 DESKTOP WITH 21.5" MONITOR</t>
+  </si>
+  <si>
+    <t>Nil Rated</t>
+  </si>
+  <si>
     <t>Other Supporting Accesories</t>
   </si>
   <si>
+    <t>Other Supporting Accesories851762</t>
+  </si>
+  <si>
+    <t>145860Other Supporting Accesories</t>
+  </si>
+  <si>
     <t>Telephone</t>
   </si>
   <si>
+    <t>Telephone85176290</t>
+  </si>
+  <si>
+    <t>145861Telephone</t>
+  </si>
+  <si>
     <t>Accessories Cable, Cord etc</t>
   </si>
   <si>
+    <t>Accessories Cable, Cord etc847330</t>
+  </si>
+  <si>
+    <t>145862Accessories Cable, Cord etc</t>
+  </si>
+  <si>
     <t>Laptop</t>
   </si>
   <si>
+    <t>Laptop84713010</t>
+  </si>
+  <si>
+    <t>145863Laptop</t>
+  </si>
+  <si>
     <t>SAMSUNG GALAXY TAB A8 LTE (X205NE)  (4/64 GB)</t>
   </si>
   <si>
+    <t>SAMSUNG GALAXY TAB A8 LTE (X205NE)  (4/64 GB)84713090</t>
+  </si>
+  <si>
+    <t>145864SAMSUNG GALAXY TAB A8 LTE (X205NE)  (4/64 GB)</t>
+  </si>
+  <si>
     <t>Printer</t>
   </si>
   <si>
+    <t>Printer84433100</t>
+  </si>
+  <si>
+    <t>145865Printer</t>
+  </si>
+  <si>
     <t>Video Conferencing System</t>
   </si>
   <si>
+    <t>Video Conferencing System85176290</t>
+  </si>
+  <si>
+    <t>145866Video Conferencing System</t>
+  </si>
+  <si>
     <t>UPS</t>
   </si>
   <si>
+    <t>UPS8504</t>
+  </si>
+  <si>
+    <t>145867UPS</t>
+  </si>
+  <si>
     <t>Installation Charges</t>
   </si>
   <si>
+    <t>Installation Charges9987</t>
+  </si>
+  <si>
+    <t>145868Installation Charges</t>
+  </si>
+  <si>
     <t>SCANNER</t>
   </si>
   <si>
+    <t>SCANNER84716050</t>
+  </si>
+  <si>
+    <t>145869SCANNER</t>
+  </si>
+  <si>
     <t>CCTV  Camera</t>
   </si>
   <si>
+    <t>CCTV  Camera852580</t>
+  </si>
+  <si>
+    <t>145870CCTV  Camera</t>
+  </si>
+  <si>
     <t>Graphic Card</t>
   </si>
   <si>
+    <t>Graphic Card847330</t>
+  </si>
+  <si>
+    <t>145871Graphic Card</t>
+  </si>
+  <si>
     <t>LED/Monitor</t>
-  </si>
-  <si>
-    <t>PCS</t>
-  </si>
-  <si>
-    <t>Nil Rated</t>
-  </si>
-  <si>
-    <t>Potassium Chloride145852</t>
-  </si>
-  <si>
-    <t>JOB WORK145853</t>
-  </si>
-  <si>
-    <t>Sodium Sulphate145854</t>
-  </si>
-  <si>
-    <t>Medium Free Flow Salt145855</t>
-  </si>
-  <si>
-    <t>Alluminium Chloride 145856</t>
-  </si>
-  <si>
-    <t>Sodium Thyo Sulphate 145857</t>
-  </si>
-  <si>
-    <t>Sodium Sulphate145858</t>
-  </si>
-  <si>
-    <t>HP i5 DESKTOP WITH 21.5" MONITOR84715000</t>
-  </si>
-  <si>
-    <t>145859HP i5 DESKTOP WITH 21.5" MONITOR</t>
-  </si>
-  <si>
-    <t>Other Supporting Accesories851762</t>
-  </si>
-  <si>
-    <t>145860Other Supporting Accesories</t>
-  </si>
-  <si>
-    <t>Telephone85176290</t>
-  </si>
-  <si>
-    <t>145861Telephone</t>
-  </si>
-  <si>
-    <t>Accessories Cable, Cord etc847330</t>
-  </si>
-  <si>
-    <t>145862Accessories Cable, Cord etc</t>
-  </si>
-  <si>
-    <t>Laptop84713010</t>
-  </si>
-  <si>
-    <t>145863Laptop</t>
-  </si>
-  <si>
-    <t>SAMSUNG GALAXY TAB A8 LTE (X205NE)  (4/64 GB)84713090</t>
-  </si>
-  <si>
-    <t>145864SAMSUNG GALAXY TAB A8 LTE (X205NE)  (4/64 GB)</t>
-  </si>
-  <si>
-    <t>Printer84433100</t>
-  </si>
-  <si>
-    <t>145865Printer</t>
-  </si>
-  <si>
-    <t>Video Conferencing System85176290</t>
-  </si>
-  <si>
-    <t>145866Video Conferencing System</t>
-  </si>
-  <si>
-    <t>UPS8504</t>
-  </si>
-  <si>
-    <t>145867UPS</t>
-  </si>
-  <si>
-    <t>Installation Charges9987</t>
-  </si>
-  <si>
-    <t>145868Installation Charges</t>
-  </si>
-  <si>
-    <t>SCANNER84716050</t>
-  </si>
-  <si>
-    <t>145869SCANNER</t>
-  </si>
-  <si>
-    <t>CCTV  Camera852580</t>
-  </si>
-  <si>
-    <t>145870CCTV  Camera</t>
-  </si>
-  <si>
-    <t>Graphic Card847330</t>
-  </si>
-  <si>
-    <t>145871Graphic Card</t>
   </si>
   <si>
     <t>LED/Monitor852852</t>
@@ -306,17 +295,30 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="0.0"/>
-    <numFmt numFmtId="165" formatCode="0.00;[Red]0.00"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+  <numFmts count="7">
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="180" formatCode="dd/mm/yyyy"/>
+    <numFmt numFmtId="181" formatCode="0.0"/>
+    <numFmt numFmtId="182" formatCode="0.00;[Red]0.00"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -324,25 +326,162 @@
       <sz val="16"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="14"/>
-      <color theme="1"/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="8"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -355,8 +494,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -366,45 +691,331 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="180" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="181" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="182" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
+    <cellStyle name="Percent" xfId="3" builtinId="5"/>
+    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
+    <cellStyle name="Note" xfId="8" builtinId="10"/>
+    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
+    <cellStyle name="Title" xfId="10" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
+    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
+    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
+    <cellStyle name="Input" xfId="16" builtinId="20"/>
+    <cellStyle name="Output" xfId="17" builtinId="21"/>
+    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
+    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
+    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
+    <cellStyle name="Total" xfId="21" builtinId="25"/>
+    <cellStyle name="Good" xfId="22" builtinId="26"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
+    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -453,7 +1064,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -488,7 +1099,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -662,118 +1273,113 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:R22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="25.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="21.77734375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="6.88671875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.21875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="23.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.2190476190476" customWidth="1"/>
+    <col min="2" max="2" width="7.88571428571429" customWidth="1"/>
+    <col min="3" max="4" width="25.2190476190476" customWidth="1"/>
+    <col min="5" max="5" width="10.6666666666667" customWidth="1"/>
+    <col min="6" max="6" width="22.3333333333333" customWidth="1"/>
+    <col min="7" max="7" width="13.6666666666667" customWidth="1"/>
+    <col min="8" max="8" width="21" customWidth="1"/>
+    <col min="9" max="9" width="13.3333333333333" customWidth="1"/>
+    <col min="10" max="10" width="12.3333333333333" customWidth="1"/>
+    <col min="11" max="11" width="21.7809523809524" customWidth="1"/>
+    <col min="12" max="12" width="14" customWidth="1"/>
+    <col min="13" max="13" width="13.8857142857143" customWidth="1"/>
+    <col min="14" max="14" width="13.1047619047619" customWidth="1"/>
+    <col min="15" max="15" width="17.6666666666667" customWidth="1"/>
+    <col min="16" max="16" width="6.88571428571429" customWidth="1"/>
+    <col min="17" max="17" width="11.2190476190476" customWidth="1"/>
+    <col min="18" max="18" width="23.2190476190476" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="4" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="5" t="s">
+    <row r="1" s="1" customFormat="1" ht="45" customHeight="1" spans="1:18">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="6" t="s">
+      <c r="Q1" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="7" t="s">
+      <c r="R1" s="8" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18">
       <c r="A2" t="s">
         <v>18</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D2" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="E2">
         <v>145852</v>
       </c>
       <c r="F2" t="s">
-        <v>57</v>
+        <v>22</v>
       </c>
       <c r="G2">
         <v>28273990</v>
@@ -782,12 +1388,12 @@
         <v>18</v>
       </c>
       <c r="I2" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="J2">
         <v>18</v>
       </c>
-      <c r="K2" s="8">
+      <c r="K2" s="6">
         <v>45383</v>
       </c>
       <c r="L2">
@@ -809,38 +1415,41 @@
         <v>186150</v>
       </c>
       <c r="R2" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18">
       <c r="A3" t="s">
-        <v>19</v>
+        <v>25</v>
+      </c>
+      <c r="B3" t="s">
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="E3">
         <v>145853</v>
       </c>
       <c r="F3" t="s">
-        <v>58</v>
+        <v>29</v>
       </c>
       <c r="G3">
         <v>998842</v>
       </c>
       <c r="H3" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="I3" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="J3">
         <v>28</v>
       </c>
-      <c r="K3" s="8">
+      <c r="K3" s="6">
         <v>45383</v>
       </c>
       <c r="L3">
@@ -862,41 +1471,41 @@
         <v>142800</v>
       </c>
       <c r="R3" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E4">
         <v>145854</v>
       </c>
       <c r="F4" t="s">
-        <v>59</v>
+        <v>34</v>
       </c>
       <c r="G4">
         <v>28331990</v>
       </c>
       <c r="H4" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="I4" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="J4">
         <v>12</v>
       </c>
-      <c r="K4" s="8">
+      <c r="K4" s="6">
         <v>45383</v>
       </c>
       <c r="L4">
@@ -918,41 +1527,41 @@
         <v>37500</v>
       </c>
       <c r="R4" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C5" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="D5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E5">
         <v>145855</v>
       </c>
       <c r="F5" t="s">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="G5">
         <v>2501</v>
       </c>
       <c r="H5" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="I5" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="J5">
         <v>5</v>
       </c>
-      <c r="K5" s="8">
+      <c r="K5" s="6">
         <v>45383</v>
       </c>
       <c r="L5">
@@ -974,41 +1583,41 @@
         <v>10500</v>
       </c>
       <c r="R5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
+      <c r="A6" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>22</v>
-      </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C6" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="D6" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="E6">
         <v>145856</v>
       </c>
       <c r="F6" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="G6">
         <v>28273200</v>
       </c>
       <c r="H6" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="I6" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="J6">
         <v>18</v>
       </c>
-      <c r="K6" s="8">
+      <c r="K6" s="6">
         <v>45383</v>
       </c>
       <c r="L6">
@@ -1030,41 +1639,41 @@
         <v>30000</v>
       </c>
       <c r="R6" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18">
       <c r="A7" t="s">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C7" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="D7" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="E7">
         <v>145857</v>
       </c>
       <c r="F7" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="G7">
         <v>283230</v>
       </c>
       <c r="H7" t="s">
+        <v>43</v>
+      </c>
+      <c r="I7" t="s">
         <v>23</v>
-      </c>
-      <c r="I7" t="s">
-        <v>38</v>
       </c>
       <c r="J7">
         <v>28</v>
       </c>
-      <c r="K7" s="8">
+      <c r="K7" s="6">
         <v>45383</v>
       </c>
       <c r="L7">
@@ -1086,41 +1695,41 @@
         <v>300</v>
       </c>
       <c r="R7" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18">
       <c r="A8" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C8" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="D8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E8">
         <v>145858</v>
       </c>
       <c r="F8" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="G8">
         <v>28331100</v>
       </c>
       <c r="H8" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="I8" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="J8">
         <v>12</v>
       </c>
-      <c r="K8" s="8">
+      <c r="K8" s="6">
         <v>45383</v>
       </c>
       <c r="L8">
@@ -1142,41 +1751,41 @@
         <v>2700</v>
       </c>
       <c r="R8" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18">
       <c r="A9" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="B9" t="s">
-        <v>55</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="D9" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="E9">
         <v>145859</v>
       </c>
       <c r="F9" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="G9">
         <v>84715000</v>
       </c>
       <c r="H9" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="I9" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
-      <c r="K9" s="8">
+      <c r="K9" s="6">
         <v>45383</v>
       </c>
       <c r="L9">
@@ -1198,41 +1807,41 @@
         <v>25500</v>
       </c>
       <c r="R9" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18">
       <c r="A10" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>54</v>
+      </c>
+      <c r="D10" t="s">
         <v>55</v>
-      </c>
-      <c r="C10" t="s">
-        <v>66</v>
-      </c>
-      <c r="D10" t="s">
-        <v>67</v>
       </c>
       <c r="E10">
         <v>145860</v>
       </c>
       <c r="F10" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="G10">
         <v>851762</v>
       </c>
       <c r="H10" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="I10" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="J10">
         <v>18</v>
       </c>
-      <c r="K10" s="8">
+      <c r="K10" s="6">
         <v>45383</v>
       </c>
       <c r="L10">
@@ -1254,41 +1863,41 @@
         <v>21000</v>
       </c>
       <c r="R10" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:18">
       <c r="A11" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="B11" t="s">
-        <v>55</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="D11" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="E11">
         <v>145861</v>
       </c>
       <c r="F11" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="G11">
         <v>85176290</v>
       </c>
       <c r="H11" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="I11" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="J11">
         <v>28</v>
       </c>
-      <c r="K11" s="8">
+      <c r="K11" s="6">
         <v>45383</v>
       </c>
       <c r="L11">
@@ -1310,41 +1919,41 @@
         <v>1500</v>
       </c>
       <c r="R11" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:18">
       <c r="A12" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="B12" t="s">
-        <v>55</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="D12" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="E12">
         <v>145862</v>
       </c>
       <c r="F12" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="G12">
         <v>847330</v>
       </c>
       <c r="H12" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="I12" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="J12">
         <v>12</v>
       </c>
-      <c r="K12" s="8">
+      <c r="K12" s="6">
         <v>45383</v>
       </c>
       <c r="L12">
@@ -1366,41 +1975,41 @@
         <v>1500</v>
       </c>
       <c r="R12" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:18">
       <c r="A13" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="B13" t="s">
-        <v>55</v>
+        <v>26</v>
       </c>
       <c r="C13" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="D13" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="E13">
         <v>145863</v>
       </c>
       <c r="F13" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="G13">
         <v>84713010</v>
       </c>
       <c r="H13" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="I13" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="J13">
         <v>5</v>
       </c>
-      <c r="K13" s="8">
+      <c r="K13" s="6">
         <v>45383</v>
       </c>
       <c r="L13">
@@ -1422,41 +2031,41 @@
         <v>6000</v>
       </c>
       <c r="R13" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:18">
       <c r="A14" t="s">
-        <v>46</v>
+        <v>65</v>
       </c>
       <c r="B14" t="s">
-        <v>55</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="D14" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="E14">
         <v>145864</v>
       </c>
       <c r="F14" t="s">
-        <v>46</v>
+        <v>65</v>
       </c>
       <c r="G14">
         <v>84713090</v>
       </c>
       <c r="H14" t="s">
-        <v>46</v>
+        <v>65</v>
       </c>
       <c r="I14" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="J14">
         <v>18</v>
       </c>
-      <c r="K14" s="8">
+      <c r="K14" s="6">
         <v>45383</v>
       </c>
       <c r="L14">
@@ -1478,41 +2087,41 @@
         <v>6000</v>
       </c>
       <c r="R14" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:18">
       <c r="A15" t="s">
-        <v>47</v>
+        <v>68</v>
       </c>
       <c r="B15" t="s">
-        <v>55</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="D15" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="E15">
         <v>145865</v>
       </c>
       <c r="F15" t="s">
-        <v>47</v>
+        <v>68</v>
       </c>
       <c r="G15">
         <v>84433100</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
+        <v>68</v>
       </c>
       <c r="I15" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="J15">
         <v>28</v>
       </c>
-      <c r="K15" s="8">
+      <c r="K15" s="6">
         <v>45383</v>
       </c>
       <c r="L15">
@@ -1534,41 +2143,41 @@
         <v>54000</v>
       </c>
       <c r="R15" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:18">
       <c r="A16" t="s">
-        <v>48</v>
+        <v>71</v>
       </c>
       <c r="B16" t="s">
-        <v>55</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="D16" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="E16">
         <v>145866</v>
       </c>
       <c r="F16" t="s">
-        <v>48</v>
+        <v>71</v>
       </c>
       <c r="G16">
         <v>85176290</v>
       </c>
       <c r="H16" t="s">
-        <v>48</v>
+        <v>71</v>
       </c>
       <c r="I16" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="J16">
         <v>12</v>
       </c>
-      <c r="K16" s="8">
+      <c r="K16" s="6">
         <v>45383</v>
       </c>
       <c r="L16">
@@ -1590,41 +2199,41 @@
         <v>25500</v>
       </c>
       <c r="R16" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:18">
       <c r="A17" t="s">
-        <v>49</v>
+        <v>74</v>
       </c>
       <c r="B17" t="s">
-        <v>55</v>
+        <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="D17" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="E17">
         <v>145867</v>
       </c>
       <c r="F17" t="s">
-        <v>49</v>
+        <v>74</v>
       </c>
       <c r="G17">
         <v>8504</v>
       </c>
       <c r="H17" t="s">
-        <v>49</v>
+        <v>74</v>
       </c>
       <c r="I17" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="J17">
         <v>18</v>
       </c>
-      <c r="K17" s="8">
+      <c r="K17" s="6">
         <v>45383</v>
       </c>
       <c r="L17">
@@ -1646,41 +2255,41 @@
         <v>21000</v>
       </c>
       <c r="R17" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:18">
       <c r="A18" t="s">
-        <v>50</v>
+        <v>77</v>
       </c>
       <c r="B18" t="s">
-        <v>55</v>
+        <v>26</v>
       </c>
       <c r="C18" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="D18" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="E18">
         <v>145868</v>
       </c>
       <c r="F18" t="s">
-        <v>50</v>
+        <v>77</v>
       </c>
       <c r="G18">
         <v>9987</v>
       </c>
       <c r="H18" t="s">
-        <v>50</v>
+        <v>77</v>
       </c>
       <c r="I18" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="J18">
         <v>28</v>
       </c>
-      <c r="K18" s="8">
+      <c r="K18" s="6">
         <v>45383</v>
       </c>
       <c r="L18">
@@ -1702,41 +2311,41 @@
         <v>1500</v>
       </c>
       <c r="R18" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:18">
       <c r="A19" t="s">
-        <v>51</v>
+        <v>80</v>
       </c>
       <c r="B19" t="s">
-        <v>55</v>
+        <v>26</v>
       </c>
       <c r="C19" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D19" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E19">
         <v>145869</v>
       </c>
       <c r="F19" t="s">
-        <v>51</v>
+        <v>80</v>
       </c>
       <c r="G19">
         <v>84716050</v>
       </c>
       <c r="H19" t="s">
-        <v>51</v>
+        <v>80</v>
       </c>
       <c r="I19" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="J19">
         <v>12</v>
       </c>
-      <c r="K19" s="8">
+      <c r="K19" s="6">
         <v>45383</v>
       </c>
       <c r="L19">
@@ -1758,41 +2367,41 @@
         <v>1500</v>
       </c>
       <c r="R19" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:18">
       <c r="A20" t="s">
-        <v>52</v>
+        <v>83</v>
       </c>
       <c r="B20" t="s">
-        <v>55</v>
+        <v>26</v>
       </c>
       <c r="C20" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D20" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E20">
         <v>145870</v>
       </c>
       <c r="F20" t="s">
-        <v>52</v>
+        <v>83</v>
       </c>
       <c r="G20">
         <v>852580</v>
       </c>
       <c r="H20" t="s">
-        <v>52</v>
+        <v>83</v>
       </c>
       <c r="I20" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="J20">
         <v>5</v>
       </c>
-      <c r="K20" s="8">
+      <c r="K20" s="6">
         <v>45383</v>
       </c>
       <c r="L20">
@@ -1814,41 +2423,41 @@
         <v>6000</v>
       </c>
       <c r="R20" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:18">
       <c r="A21" t="s">
-        <v>53</v>
+        <v>86</v>
       </c>
       <c r="B21" t="s">
-        <v>55</v>
+        <v>26</v>
       </c>
       <c r="C21" t="s">
+        <v>87</v>
+      </c>
+      <c r="D21" t="s">
         <v>88</v>
-      </c>
-      <c r="D21" t="s">
-        <v>89</v>
       </c>
       <c r="E21">
         <v>145871</v>
       </c>
       <c r="F21" t="s">
-        <v>53</v>
+        <v>86</v>
       </c>
       <c r="G21">
         <v>847330</v>
       </c>
       <c r="H21" t="s">
-        <v>53</v>
+        <v>86</v>
       </c>
       <c r="I21" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="J21">
         <v>18</v>
       </c>
-      <c r="K21" s="8">
+      <c r="K21" s="6">
         <v>45383</v>
       </c>
       <c r="L21">
@@ -1870,15 +2479,15 @@
         <v>6000</v>
       </c>
       <c r="R21" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:18">
       <c r="A22" t="s">
-        <v>54</v>
+        <v>89</v>
       </c>
       <c r="B22" t="s">
-        <v>55</v>
+        <v>26</v>
       </c>
       <c r="C22" t="s">
         <v>90</v>
@@ -1890,21 +2499,21 @@
         <v>145872</v>
       </c>
       <c r="F22" t="s">
-        <v>54</v>
+        <v>89</v>
       </c>
       <c r="G22">
         <v>852852</v>
       </c>
       <c r="H22" t="s">
-        <v>54</v>
+        <v>89</v>
       </c>
       <c r="I22" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="J22">
         <v>28</v>
       </c>
-      <c r="K22" s="8">
+      <c r="K22" s="6">
         <v>45383</v>
       </c>
       <c r="L22">
@@ -1926,11 +2535,11 @@
         <v>54000</v>
       </c>
       <c r="R22" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>